--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P02_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P02_trail9 Features.xlsx
@@ -4222,7 +4222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4233,29 +4233,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="18" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4276,115 +4274,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4401,72 +4389,66 @@
         <v>4.396678305205667e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.187230021101485</v>
+        <v>2.371064454989916e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.75993125241147</v>
+        <v>6.29414182758277e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.371064454989916e-07</v>
+        <v>0.07888012211726479</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.29414182758277e-07</v>
+        <v>0.1873234374765706</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.07888012211726479</v>
+        <v>0.04122813781671639</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1873234374765706</v>
+        <v>1.907621236115262</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04122813781671639</v>
+        <v>2.303263662068305</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.927411049042855</v>
+        <v>4.810436527895495</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.303263662068305</v>
+        <v>5.834256556853619e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.810436527895495</v>
+        <v>7882072363.826943</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.834256556853619e-18</v>
+        <v>1.526626142207255e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>7882072363.826943</v>
+        <v>362.4652348676149</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.526626142207255e-08</v>
+        <v>0.0001487287635437653</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>362.4652348676149</v>
+        <v>8.780788773378493</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001487287635437653</v>
+        <v>1.742498488586538</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.780788773378493</v>
+        <v>0.0114673225294609</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.742498488586538</v>
+        <v>3.587581997918062</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0114673225294609</v>
+        <v>0.9641927148011593</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.587581997918062</v>
+        <v>1.22080389283397</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9641927148011593</v>
+        <v>121</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.22080389283397</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>121</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.9978904333562011</v>
       </c>
     </row>
@@ -4481,72 +4463,66 @@
         <v>3.741357888393358e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-2.004982378183783</v>
+        <v>1.935811651773461e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3.807985110888099</v>
+        <v>6.32497353300856e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.935811651773461e-07</v>
+        <v>0.07328853068949147</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.32497353300856e-07</v>
+        <v>0.1699569885420331</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.07328853068949147</v>
+        <v>0.03419370899095785</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1699569885420331</v>
+        <v>1.914274618449679</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03419370899095785</v>
+        <v>2.468708827332346</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.935193442295911</v>
+        <v>4.742245366113098</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.468708827332346</v>
+        <v>5.082390959305895e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.742245366113098</v>
+        <v>9458009302.466303</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.082390959305895e-18</v>
+        <v>1.27648187439282e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>9458009302.466303</v>
+        <v>454.6398957551482</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.27648187439282e-08</v>
+        <v>0.0001176682440795772</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>454.6398957551482</v>
+        <v>8.601631411030516</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001176682440795772</v>
+        <v>1.309950279088387</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.601631411030516</v>
+        <v>0.008706045447966717</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.309950279088387</v>
+        <v>3.547379668494647</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.008706045447966717</v>
+        <v>0.9633999887692687</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.547379668494647</v>
+        <v>1.199990306141835</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9633999887692687</v>
+        <v>121</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.199990306141835</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>121</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.9837485581416825</v>
       </c>
     </row>
@@ -4561,72 +4537,66 @@
         <v>3.24534397466584e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.864627970709683</v>
+        <v>1.618402721796617e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>3.162943604490289</v>
+        <v>6.349616723211869e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.618402721796617e-07</v>
+        <v>0.06838859219978588</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.349616723211869e-07</v>
+        <v>0.1572911300252386</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.06838859219978588</v>
+        <v>0.02937310820195383</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1572911300252386</v>
+        <v>1.91467088543527</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02937310820195383</v>
+        <v>2.629275176273274</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.938148262470799</v>
+        <v>4.797445005773829</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.629275176273274</v>
+        <v>6.251431116390892e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.797445005773829</v>
+        <v>7662143216.405517</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.251431116390892e-18</v>
+        <v>1.57587538899145e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>7662143216.405517</v>
+        <v>367.0117602882942</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.57587538899145e-08</v>
+        <v>0.000117114445450505</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>367.0117602882942</v>
+        <v>9.242432053226254</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000117114445450505</v>
+        <v>1.153213733016954</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.242432053226254</v>
+        <v>0.0100042146024926</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.153213733016954</v>
+        <v>3.303489806219114</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0100042146024926</v>
+        <v>0.9635739926459185</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.303489806219114</v>
+        <v>1.21072324017895</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9635739926459185</v>
+        <v>115</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.21072324017895</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>115</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.9019065969891757</v>
       </c>
     </row>
@@ -4641,72 +4611,66 @@
         <v>2.858005661613569e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-1.760512746848763</v>
+        <v>1.386367339449266e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2.787535171915014</v>
+        <v>6.369840982478344e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.386367339449266e-07</v>
+        <v>0.06473635187380478</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.369840982478344e-07</v>
+        <v>0.1505494625970261</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.06473635187380478</v>
+        <v>0.02682509708429836</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1505494625970261</v>
+        <v>1.915901322879361</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02682509708429836</v>
+        <v>2.299042685398653</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.94109431295117</v>
+        <v>4.981230307695633</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.299042685398653</v>
+        <v>9.253714847881635e-18</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.981230307695633</v>
+        <v>5030388934.89502</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>9.253714847881635e-18</v>
+        <v>2.399493443390411e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>5030388934.89502</v>
+        <v>234.163522266267</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.399493443390411e-08</v>
+        <v>0.0001171110510221091</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>234.163522266267</v>
+        <v>9.571132027328881</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001171110510221091</v>
+        <v>1.161267387152933</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.571132027328881</v>
+        <v>0.01072814149233351</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.161267387152933</v>
+        <v>3.357764781718023</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01072814149233351</v>
+        <v>0.9617076412951668</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.357764781718023</v>
+        <v>1.221251593955851</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9617076412951668</v>
+        <v>83</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.221251593955851</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.9259833598179662</v>
       </c>
     </row>
@@ -4721,72 +4685,66 @@
         <v>2.543967608949739e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-1.680860030796695</v>
+        <v>1.215018900067454e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2.615759040212087</v>
+        <v>6.386982111974405e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.215018900067454e-07</v>
+        <v>0.06274190455588501</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.386982111974405e-07</v>
+        <v>0.1497372115871843</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.06274190455588501</v>
+        <v>0.02633593214161773</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1497372115871843</v>
+        <v>1.912248972623753</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02633593214161773</v>
+        <v>2.409656110553523</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.931384137993308</v>
+        <v>4.567410654185777</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.409656110553523</v>
+        <v>1.167505524412092e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.567410654185777</v>
+        <v>4029399459.868298</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.167505524412092e-17</v>
+        <v>2.992509183318097e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>4029399459.868298</v>
+        <v>189.5568975307697</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.992509183318097e-08</v>
+        <v>0.0001354006369816417</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>189.5568975307697</v>
+        <v>11.2433066720508</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001354006369816417</v>
+        <v>1.273944522392459</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.2433066720508</v>
+        <v>0.0171162578644975</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.273944522392459</v>
+        <v>3.464578892126922</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0171162578644975</v>
+        <v>0.9618884035236871</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.464578892126922</v>
+        <v>1.259885182736883</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9618884035236871</v>
+        <v>72</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.259885182736883</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>1.124707592823697</v>
       </c>
     </row>
@@ -4801,72 +4759,66 @@
         <v>2.279248591458933e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-1.611166709937698</v>
+        <v>1.085761545784479e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2.577705074170165</v>
+        <v>6.401981270100371e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.085761545784479e-07</v>
+        <v>0.06197692464242546</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.401981270100371e-07</v>
+        <v>0.1539890449219174</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.06197692464242546</v>
+        <v>0.02753797517475355</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1539890449219174</v>
+        <v>1.889644831425157</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02753797517475355</v>
+        <v>2.003218755111534</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.88786267911034</v>
+        <v>5.747413058582952</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.003218755111534</v>
+        <v>1.859003661671364e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.747413058582952</v>
+        <v>2496436604.455035</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.859003661671364e-17</v>
+        <v>4.811402725893326e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>2496436604.455035</v>
+        <v>115.8567466384969</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.811402725893326e-08</v>
+        <v>0.0002001536636605435</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>115.8567466384969</v>
+        <v>11.11141980713086</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0002001536636605435</v>
+        <v>1.520154747434367</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>11.11141980713086</v>
+        <v>0.02471170190248307</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.520154747434367</v>
+        <v>3.306874605893515</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02471170190248307</v>
+        <v>0.9598982341253999</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.306874605893515</v>
+        <v>1.471240821881099</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9598982341253999</v>
+        <v>73</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.471240821881099</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>1.132742500254766</v>
       </c>
     </row>
@@ -5243,7 +5195,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.494026156580533</v>
+        <v>1.496746106813459</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.328020637943296</v>
@@ -5332,7 +5284,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.492311871795341</v>
+        <v>1.494834939208826</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.206106870472657</v>
@@ -5421,7 +5373,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.508966876065006</v>
+        <v>1.511268994357021</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.318895608702699</v>
@@ -5510,7 +5462,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.507901058177227</v>
+        <v>1.508154373623343</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.239533726895947</v>
@@ -5599,7 +5551,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.521423607370548</v>
+        <v>1.523965005122225</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.251090999258936</v>
@@ -5688,7 +5640,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.542208934455068</v>
+        <v>1.542651625443565</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.227865294773807</v>
@@ -5777,7 +5729,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.563449841422843</v>
+        <v>1.551344761430595</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.224467558538573</v>
@@ -5866,7 +5818,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.572744339063657</v>
+        <v>1.561820224035004</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.169203751749239</v>
@@ -5955,7 +5907,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.569626804742537</v>
+        <v>1.560453689439056</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.223716343516893</v>
@@ -6044,7 +5996,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.621158280815063</v>
+        <v>1.605664430294794</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.906913329009893</v>
@@ -6133,7 +6085,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.709596838123424</v>
+        <v>1.684053373265763</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.713101322168127</v>
@@ -6222,7 +6174,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.710080134492898</v>
+        <v>1.682971980694273</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.707514164083287</v>
@@ -6311,7 +6263,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.728321382570085</v>
+        <v>1.694686582030902</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.625028968792525</v>
@@ -6400,7 +6352,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.751043400188993</v>
+        <v>1.718483077456411</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.645401435504907</v>
@@ -6489,7 +6441,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.713721123869503</v>
+        <v>1.691549606362557</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.60168030973397</v>
@@ -6578,7 +6530,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.742825595259224</v>
+        <v>1.715711427759381</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.605715042342278</v>
@@ -6667,7 +6619,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.73066713818082</v>
+        <v>1.706479555029166</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.703159443351597</v>
@@ -6756,7 +6708,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.732425273575005</v>
+        <v>1.705062091608587</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.677655024392153</v>
@@ -6845,7 +6797,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.732545844973841</v>
+        <v>1.702577795518736</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.800681398602118</v>
@@ -6934,7 +6886,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.740045485510756</v>
+        <v>1.702868160326973</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.79376295863908</v>
@@ -7023,7 +6975,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.74224270458002</v>
+        <v>1.702222923813046</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.636129870286505</v>
@@ -7112,7 +7064,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.727423949805684</v>
+        <v>1.689620453206144</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.68993918763525</v>
@@ -7201,7 +7153,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.72747487290484</v>
+        <v>1.688095907654903</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.720062608140171</v>
@@ -7290,7 +7242,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.733288771471914</v>
+        <v>1.694704377607319</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.737348901933243</v>
@@ -7379,7 +7331,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.734999496547327</v>
+        <v>1.695129374876577</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.774775330913987</v>
@@ -7468,7 +7420,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.677407603729676</v>
+        <v>1.648356462238395</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.365084170344992</v>
@@ -7557,7 +7509,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.672380588342828</v>
+        <v>1.645824433749665</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.399413005652907</v>
@@ -7646,7 +7598,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.670229648365317</v>
+        <v>1.644456739536603</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.488463318095291</v>
@@ -7735,7 +7687,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.645417219606432</v>
+        <v>1.615576528540694</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.396709512065103</v>
@@ -7824,7 +7776,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.673253597434713</v>
+        <v>1.63863260227118</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.539502782086537</v>
@@ -7913,7 +7865,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.674297960485544</v>
+        <v>1.642947991432622</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.570904537265979</v>
@@ -8002,7 +7954,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.687004214876741</v>
+        <v>1.647065156971901</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.476062053472134</v>
@@ -8091,7 +8043,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.65519566943656</v>
+        <v>1.629713813590471</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.481538358526865</v>
@@ -8180,7 +8132,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.655696588905571</v>
+        <v>1.632442545763818</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.390927089073962</v>
@@ -8269,7 +8221,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.643623662115282</v>
+        <v>1.62695555717319</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.472705360771688</v>
@@ -8358,7 +8310,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.415071913755299</v>
+        <v>1.414184469404962</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.614562014387297</v>
@@ -8447,7 +8399,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.358784196001301</v>
+        <v>1.375249244515919</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.618826927721722</v>
@@ -8536,7 +8488,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.363053733441892</v>
+        <v>1.379098706079724</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.620751029888765</v>
@@ -8625,7 +8577,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.354297707239954</v>
+        <v>1.37171361858359</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.629307703902629</v>
@@ -8714,7 +8666,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.348791507060455</v>
+        <v>1.366499139706043</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.612779868613562</v>
@@ -8803,7 +8755,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.361382280066527</v>
+        <v>1.381562353857319</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.627703501888716</v>
@@ -8892,7 +8844,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.37070795552113</v>
+        <v>1.392533312993369</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.618998938802517</v>
@@ -8981,7 +8933,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.365713552829583</v>
+        <v>1.386179175876679</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.621387299123032</v>
@@ -9070,7 +9022,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.371176934237864</v>
+        <v>1.393718433982497</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.619095928548786</v>
@@ -9159,7 +9111,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.359873126543056</v>
+        <v>1.381950486506004</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.61481763600416</v>
@@ -9248,7 +9200,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.352607813971085</v>
+        <v>1.36830332739683</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.618398839349407</v>
@@ -9337,7 +9289,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.341200806584944</v>
+        <v>1.362344133339665</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.641383455335172</v>
@@ -9426,7 +9378,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.33607112485081</v>
+        <v>1.35617637870434</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.622671679539971</v>
@@ -9515,7 +9467,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.33629696357333</v>
+        <v>1.357008452170923</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.618994453284708</v>
@@ -9604,7 +9556,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.330334320027141</v>
+        <v>1.346915551904998</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.583981680755811</v>
@@ -9693,7 +9645,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.486288668396921</v>
+        <v>1.499832462096012</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.840410819918759</v>
@@ -9979,7 +9931,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.270509616603105</v>
+        <v>1.27089620098223</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.441637712707953</v>
@@ -10068,7 +10020,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.270431700090906</v>
+        <v>1.272151024855468</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.44049062971593</v>
@@ -10157,7 +10109,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.274111323284673</v>
+        <v>1.275559579617564</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.442971132864507</v>
@@ -10246,7 +10198,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.273206347866472</v>
+        <v>1.275014246075391</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.443097608212947</v>
@@ -10335,7 +10287,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.271706679919637</v>
+        <v>1.273654477675306</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.445514819991776</v>
@@ -10424,7 +10376,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.272407779800721</v>
+        <v>1.273205471496203</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.447084337027863</v>
@@ -10513,7 +10465,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.242590998935935</v>
+        <v>1.22946684014048</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.411832014386563</v>
@@ -10602,7 +10554,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.241929288284544</v>
+        <v>1.226428079483202</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.37186857448924</v>
@@ -10691,7 +10643,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.245682925094235</v>
+        <v>1.22970833272085</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.375695368302373</v>
@@ -10780,7 +10732,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.342728199009738</v>
+        <v>1.328919905823818</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.256532122110761</v>
@@ -10869,7 +10821,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.529335933370519</v>
+        <v>1.500579477008581</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.42940070755452</v>
@@ -10958,7 +10910,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.547930663494906</v>
+        <v>1.513043235974596</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.619831140283001</v>
@@ -11047,7 +10999,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.555258778910387</v>
+        <v>1.523229291511731</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.146541433326622</v>
@@ -11136,7 +11088,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.574023364551621</v>
+        <v>1.541862856164055</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.37818539918054</v>
@@ -11225,7 +11177,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.564279080512047</v>
+        <v>1.53539157623355</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.47172347030693</v>
@@ -11314,7 +11266,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.582203492849538</v>
+        <v>1.555377634605428</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.587100928010388</v>
@@ -11403,7 +11355,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.581967176058577</v>
+        <v>1.552650876266677</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.434335174755366</v>
@@ -11492,7 +11444,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.588450315923843</v>
+        <v>1.557120714202256</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.445080250532774</v>
@@ -11581,7 +11533,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.606766019500757</v>
+        <v>1.57103422764095</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.538358698560062</v>
@@ -11670,7 +11622,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.637148526893039</v>
+        <v>1.593513023639427</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.115802312459153</v>
@@ -11759,7 +11711,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.660531135286167</v>
+        <v>1.612540513002255</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.215110406822566</v>
@@ -11848,7 +11800,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.601045201659739</v>
+        <v>1.56321447979741</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.52275854724451</v>
@@ -11937,7 +11889,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.597927871984268</v>
+        <v>1.560696255185466</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.514741405038171</v>
@@ -12026,7 +11978,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.603450517958866</v>
+        <v>1.568832435878083</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.496331452440435</v>
@@ -12115,7 +12067,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.596925160983032</v>
+        <v>1.561369726793744</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.551264438925369</v>
@@ -12204,7 +12156,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.560385520460825</v>
+        <v>1.539446780577645</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.584844285771733</v>
@@ -12293,7 +12245,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.547706102437615</v>
+        <v>1.525816680500335</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.626495829977813</v>
@@ -12382,7 +12334,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.524566767120517</v>
+        <v>1.50331580417824</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.60706700085241</v>
@@ -12471,7 +12423,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.491992466381237</v>
+        <v>1.469522610626811</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.48298294701834</v>
@@ -12560,7 +12512,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.488647071117657</v>
+        <v>1.468842444796012</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.468796193059594</v>
@@ -12649,7 +12601,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.490442534624188</v>
+        <v>1.467261682588708</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.476091471867593</v>
@@ -12738,7 +12690,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.48431482272732</v>
+        <v>1.459921042338436</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.424471578274117</v>
@@ -12827,7 +12779,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.469737055143157</v>
+        <v>1.452225852931203</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.449115853291685</v>
@@ -12916,7 +12868,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.469199327026177</v>
+        <v>1.45231337092718</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.388714546252167</v>
@@ -13005,7 +12957,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.476786529641442</v>
+        <v>1.457130103123817</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.530463257923434</v>
@@ -13094,7 +13046,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.460113030174321</v>
+        <v>1.446848695158165</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.524276309687818</v>
@@ -13183,7 +13135,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.485182694784765</v>
+        <v>1.475814869198826</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.346173007986593</v>
@@ -13272,7 +13224,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.49859126399368</v>
+        <v>1.488042349880386</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.442079058082162</v>
@@ -13361,7 +13313,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.494516206159756</v>
+        <v>1.485494910113432</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.441554602719411</v>
@@ -13450,7 +13402,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.489456002410029</v>
+        <v>1.482407424492235</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.312094723270418</v>
@@ -13539,7 +13491,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.522238949876877</v>
+        <v>1.513817970227761</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.427278323073554</v>
@@ -13628,7 +13580,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.541903680419818</v>
+        <v>1.532040762190324</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.290362640116389</v>
@@ -13717,7 +13669,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.557093964626293</v>
+        <v>1.546603745676417</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.422601148078214</v>
@@ -13806,7 +13758,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.598482323599981</v>
+        <v>1.588608433130469</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.559108264434656</v>
@@ -13895,7 +13847,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.621516646042472</v>
+        <v>1.604947467506534</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.73065656561204</v>
@@ -13984,7 +13936,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.615576229437004</v>
+        <v>1.601114946468717</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.553164348403171</v>
@@ -14073,7 +14025,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.621133038154589</v>
+        <v>1.61274395621343</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.357874621828372</v>
@@ -14162,7 +14114,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.60674697734608</v>
+        <v>1.59666700097536</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.531287550493227</v>
@@ -14251,7 +14203,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.608633366753541</v>
+        <v>1.600102564469504</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.672631356075148</v>
@@ -14340,7 +14292,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.558717970882861</v>
+        <v>1.558560893062465</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.338224038982812</v>
@@ -14429,7 +14381,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.560114364090883</v>
+        <v>1.556779599001126</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.268144650950483</v>
@@ -14715,7 +14667,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.653914517238344</v>
+        <v>1.658823841656202</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.972113290714999</v>
@@ -14804,7 +14756,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.655093908685998</v>
+        <v>1.661617660967016</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.986380369762409</v>
@@ -14893,7 +14845,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.657474536752362</v>
+        <v>1.66200764757021</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.977363113763343</v>
@@ -14982,7 +14934,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.652987250996873</v>
+        <v>1.661174095693588</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.997516458059952</v>
@@ -15071,7 +15023,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.651754079813045</v>
+        <v>1.659204880888981</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.987797103041501</v>
@@ -15160,7 +15112,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.651203609466319</v>
+        <v>1.65872878852589</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.00510667601524</v>
@@ -15249,7 +15201,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.620726914376637</v>
+        <v>1.615062172167149</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.82596853822991</v>
@@ -15338,7 +15290,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.621868273108387</v>
+        <v>1.617033436575533</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.818922235847347</v>
@@ -15427,7 +15379,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.62433754601719</v>
+        <v>1.615195108995671</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.832248133332613</v>
@@ -15516,7 +15468,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.691868447388374</v>
+        <v>1.679880952067434</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.76202522913471</v>
@@ -15605,7 +15557,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.751905690316365</v>
+        <v>1.733557740929092</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.997533249120339</v>
@@ -15694,7 +15646,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.749109443894644</v>
+        <v>1.728416568122665</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.246439101994308</v>
@@ -15783,7 +15735,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.750806967049696</v>
+        <v>1.723698340326382</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.836764690189646</v>
@@ -15872,7 +15824,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.782688993181149</v>
+        <v>1.745939012818161</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.683819504796235</v>
@@ -15961,7 +15913,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.773717472689137</v>
+        <v>1.739657683499674</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.73350633825997</v>
@@ -16050,7 +16002,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.780859550921117</v>
+        <v>1.744879186152253</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.589282072689671</v>
@@ -16139,7 +16091,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.776123168848127</v>
+        <v>1.733759225882711</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.761078136356992</v>
@@ -16228,7 +16180,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.773601576518194</v>
+        <v>1.739226413149283</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.785211701872789</v>
@@ -16317,7 +16269,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.782917586236977</v>
+        <v>1.73854331997038</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.764132723995461</v>
@@ -16406,7 +16358,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.807293589061233</v>
+        <v>1.75917092967034</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.713021440984865</v>
@@ -16495,7 +16447,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.817784614647873</v>
+        <v>1.761958815782388</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.79738732299841</v>
@@ -16584,7 +16536,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.78701260679064</v>
+        <v>1.734865725310131</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.292204358669277</v>
@@ -16673,7 +16625,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.781543807315262</v>
+        <v>1.729022469168928</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.396172747302121</v>
@@ -16762,7 +16714,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.788641984885385</v>
+        <v>1.732633408400716</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.237744571448409</v>
@@ -16851,7 +16803,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.779079482622958</v>
+        <v>1.723107574363551</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.314774630267389</v>
@@ -16940,7 +16892,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.752633436938978</v>
+        <v>1.701499339929575</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.367958811868977</v>
@@ -17029,7 +16981,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.743824728869931</v>
+        <v>1.691958145910443</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.174528492638368</v>
@@ -17118,7 +17070,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.732625459699626</v>
+        <v>1.684088941710448</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.22511556853412</v>
@@ -17207,7 +17159,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.71947739865081</v>
+        <v>1.67374340196782</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.500567201305749</v>
@@ -17296,7 +17248,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.71290210149986</v>
+        <v>1.67107005428437</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.62428838456138</v>
@@ -17385,7 +17337,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.718100274690284</v>
+        <v>1.674080715282687</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.458400457872473</v>
@@ -17474,7 +17426,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.720274762796454</v>
+        <v>1.67705872415898</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.182462292874634</v>
@@ -17563,7 +17515,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.717456937960279</v>
+        <v>1.672632694016226</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.532353712482795</v>
@@ -17652,7 +17604,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.719006746085475</v>
+        <v>1.671109811212576</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.186425470295599</v>
@@ -17741,7 +17693,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.716529746381854</v>
+        <v>1.667376505283286</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.634784417331039</v>
@@ -17830,7 +17782,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.647031483080567</v>
+        <v>1.615574757423479</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.316284761663561</v>
@@ -17919,7 +17871,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.638308837432578</v>
+        <v>1.619509382456726</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.308250940580795</v>
@@ -18008,7 +17960,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.639825450161899</v>
+        <v>1.625489785501103</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.290844692278541</v>
@@ -18097,7 +18049,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.643516154551429</v>
+        <v>1.633098633807619</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.313314110123036</v>
@@ -18186,7 +18138,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.645707290657934</v>
+        <v>1.633811665673607</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.294130779090411</v>
@@ -18275,7 +18227,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.661198684004817</v>
+        <v>1.64929557021124</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.275935448309413</v>
@@ -18364,7 +18316,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.66311259059425</v>
+        <v>1.655255336897236</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.294061182347926</v>
@@ -18453,7 +18405,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.669128411984818</v>
+        <v>1.660583443734961</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.248845213482733</v>
@@ -18542,7 +18494,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.686804163355531</v>
+        <v>1.678916138254394</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.280349263683239</v>
@@ -18631,7 +18583,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.691566297891794</v>
+        <v>1.683851577544064</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.313822966662152</v>
@@ -18720,7 +18672,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.684277437726876</v>
+        <v>1.675861260770317</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.28483534023862</v>
@@ -18809,7 +18761,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.6764013462918</v>
+        <v>1.673919943339243</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.218076956069272</v>
@@ -18898,7 +18850,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.673015678774855</v>
+        <v>1.668558385073939</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.186745251345195</v>
@@ -18987,7 +18939,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.667401181660409</v>
+        <v>1.667268004725472</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.258833243664357</v>
@@ -19076,7 +19028,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.639513738930133</v>
+        <v>1.649154206791798</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.186605309568689</v>
@@ -19165,7 +19117,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.707429497801703</v>
+        <v>1.701720177993939</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.678463873432004</v>
@@ -19451,7 +19403,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.629743425393316</v>
+        <v>1.649467119772703</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.056301821090968</v>
@@ -19540,7 +19492,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.626740977651479</v>
+        <v>1.646466953980088</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.048593569119485</v>
@@ -19629,7 +19581,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.628481252102697</v>
+        <v>1.649161137291491</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.075361079257151</v>
@@ -19718,7 +19670,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.631316578112412</v>
+        <v>1.648654681584896</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.038549830644513</v>
@@ -19807,7 +19759,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.631777094793408</v>
+        <v>1.64629254976697</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.074345058481236</v>
@@ -19896,7 +19848,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.634124170051033</v>
+        <v>1.646382635738565</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.051302121706129</v>
@@ -19985,7 +19937,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.594129218542985</v>
+        <v>1.577116520540156</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.991468654860463</v>
@@ -20074,7 +20026,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.590373541728972</v>
+        <v>1.569945830699158</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.827710505416364</v>
@@ -20163,7 +20115,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.585202732897931</v>
+        <v>1.5659431621091</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.838547347834135</v>
@@ -20252,7 +20204,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.650996527157472</v>
+        <v>1.620126002934166</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.750380962889448</v>
@@ -20341,7 +20293,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.708342408779616</v>
+        <v>1.665117843735862</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.547072637299624</v>
@@ -20430,7 +20382,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.720594057897389</v>
+        <v>1.669359772942911</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.775257331825266</v>
@@ -20519,7 +20471,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.721217885779628</v>
+        <v>1.671577976400833</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.724801104972582</v>
@@ -20608,7 +20560,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.730247864786826</v>
+        <v>1.681165068284439</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.607510882498463</v>
@@ -20697,7 +20649,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.716611568156683</v>
+        <v>1.672219243086025</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.099738782302486</v>
@@ -20786,7 +20738,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.718480729845804</v>
+        <v>1.677141045613653</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.653846375149138</v>
@@ -20875,7 +20827,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.707429649276789</v>
+        <v>1.670258192062468</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.566282386255526</v>
@@ -20964,7 +20916,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.707584785926755</v>
+        <v>1.671193259992984</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.67834573340566</v>
@@ -21053,7 +21005,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.696293218496627</v>
+        <v>1.66764342252463</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.325567642406041</v>
@@ -21142,7 +21094,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.70228014609935</v>
+        <v>1.672302746901722</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.422173514588126</v>
@@ -21231,7 +21183,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.711266348404637</v>
+        <v>1.685261386350708</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.307439310821667</v>
@@ -21320,7 +21272,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.711311695983736</v>
+        <v>1.687162751454263</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.50421399723536</v>
@@ -21409,7 +21361,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.713324056140817</v>
+        <v>1.688010321510574</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.378747834732152</v>
@@ -21498,7 +21450,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.72715249856335</v>
+        <v>1.700180334468198</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.582860837732531</v>
@@ -21587,7 +21539,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.730388022015096</v>
+        <v>1.704385002943664</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.847744662815084</v>
@@ -21676,7 +21628,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.732714390400496</v>
+        <v>1.707588267016936</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.47512760331528</v>
@@ -21765,7 +21717,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.725309845279924</v>
+        <v>1.696914326516585</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.719767845621497</v>
@@ -21854,7 +21806,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.728524997639579</v>
+        <v>1.694550583412337</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.094395200727868</v>
@@ -21943,7 +21895,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.733380483367561</v>
+        <v>1.694151179953979</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.862049757089341</v>
@@ -22032,7 +21984,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.741277781253786</v>
+        <v>1.699357567920452</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.879850973190077</v>
@@ -22121,7 +22073,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.746111387983565</v>
+        <v>1.702691239698402</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.092947263579522</v>
@@ -22210,7 +22162,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.756527235147291</v>
+        <v>1.698869750756231</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.670096864030525</v>
@@ -22299,7 +22251,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.756447443707366</v>
+        <v>1.706227449443625</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.767556768973648</v>
@@ -22388,7 +22340,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.764938275391919</v>
+        <v>1.715632514879909</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.769342039738093</v>
@@ -22477,7 +22429,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.76150794112331</v>
+        <v>1.718166145581781</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.810366014848835</v>
@@ -22566,7 +22518,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.669484635125522</v>
+        <v>1.644175497339105</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.347792740928615</v>
@@ -22655,7 +22607,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.642069508363187</v>
+        <v>1.627105521023454</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.312323673149168</v>
@@ -22744,7 +22696,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.646093585756574</v>
+        <v>1.6281924885349</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.316794985087295</v>
@@ -22833,7 +22785,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.645142881444589</v>
+        <v>1.620646866149758</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.341202591850491</v>
@@ -22922,7 +22874,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.635172213057826</v>
+        <v>1.613320665989743</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.279089818886417</v>
@@ -23011,7 +22963,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.626831852999781</v>
+        <v>1.609313945636287</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.288761588523528</v>
@@ -23100,7 +23052,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.635064369417444</v>
+        <v>1.619351574224652</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.327185342967741</v>
@@ -23189,7 +23141,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.62746638785101</v>
+        <v>1.617774360772157</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.325197646379357</v>
@@ -23278,7 +23230,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.630529852211408</v>
+        <v>1.620121854282028</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.31323456719434</v>
@@ -23367,7 +23319,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.635356146305475</v>
+        <v>1.625291230111085</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.289576292926549</v>
@@ -23456,7 +23408,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.638679151006237</v>
+        <v>1.631061152718805</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.349391306322123</v>
@@ -23545,7 +23497,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.644072990309522</v>
+        <v>1.639881855096131</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.318474381236238</v>
@@ -23634,7 +23586,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.64101762334121</v>
+        <v>1.636950172875557</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.306918867942473</v>
@@ -23723,7 +23675,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.636403546210546</v>
+        <v>1.63331372315692</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.325046329422068</v>
@@ -23812,7 +23764,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.63189960391688</v>
+        <v>1.6270323645707</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.247260776127508</v>
@@ -23901,7 +23853,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.715385795570709</v>
+        <v>1.691663243250718</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.953030284557773</v>
@@ -24187,7 +24139,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.458446448565101</v>
+        <v>1.471654614145109</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.110948454383188</v>
@@ -24276,7 +24228,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.457548533929276</v>
+        <v>1.471520047214843</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.061556104482844</v>
@@ -24365,7 +24317,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.465652525063673</v>
+        <v>1.481495548992483</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.111545026772371</v>
@@ -24454,7 +24406,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.453816433574794</v>
+        <v>1.469250590454641</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.054638498650361</v>
@@ -24543,7 +24495,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.45191279913622</v>
+        <v>1.466367318706129</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.051872386919172</v>
@@ -24632,7 +24584,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.443626018667978</v>
+        <v>1.457535972758385</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.123962331537419</v>
@@ -24721,7 +24673,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.444362292179971</v>
+        <v>1.441408719886697</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.211923812571908</v>
@@ -24810,7 +24762,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.429334124701496</v>
+        <v>1.420982271564108</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.161765155763229</v>
@@ -24899,7 +24851,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.435088489205443</v>
+        <v>1.424090291977195</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.203795901129756</v>
@@ -24988,7 +24940,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.466318309955194</v>
+        <v>1.455131121141153</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.866707310278269</v>
@@ -25077,7 +25029,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.509667415723189</v>
+        <v>1.495286126041089</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.556781457048176</v>
@@ -25166,7 +25118,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.511571353963859</v>
+        <v>1.4948509101063</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.390486966506725</v>
@@ -25255,7 +25207,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.531149853896034</v>
+        <v>1.507025304517131</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.375327121138487</v>
@@ -25344,7 +25296,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.553045539327391</v>
+        <v>1.526207765184951</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.498510839940536</v>
@@ -25433,7 +25385,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.540445477290221</v>
+        <v>1.516738672079906</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.497530288695455</v>
@@ -25522,7 +25474,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.557189763625892</v>
+        <v>1.534638896877844</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.412458398950582</v>
@@ -25611,7 +25563,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.556375947891742</v>
+        <v>1.534679668330094</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.480977450798687</v>
@@ -25700,7 +25652,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.550330849856767</v>
+        <v>1.526075939255643</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.468703636745947</v>
@@ -25789,7 +25741,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.566766195294823</v>
+        <v>1.535729753918056</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.477232850921522</v>
@@ -25878,7 +25830,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.60525688144434</v>
+        <v>1.568647870208288</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.328013010959932</v>
@@ -25967,7 +25919,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.631487350040195</v>
+        <v>1.588529579875945</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.747573756577185</v>
@@ -26056,7 +26008,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.57487366392443</v>
+        <v>1.538279417088217</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.318171425486462</v>
@@ -26145,7 +26097,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.57338332406182</v>
+        <v>1.541843794261752</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.253424038047014</v>
@@ -26234,7 +26186,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.574234553505887</v>
+        <v>1.545407711591131</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.298898144604967</v>
@@ -26323,7 +26275,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.573970225130209</v>
+        <v>1.543924436482186</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.325166486543053</v>
@@ -26412,7 +26364,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.546460611647628</v>
+        <v>1.51762811071369</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.309119648737859</v>
@@ -26501,7 +26453,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.534806634929724</v>
+        <v>1.506846785992249</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.299451430731176</v>
@@ -26590,7 +26542,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.513930132605191</v>
+        <v>1.492254558573094</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.360231537233774</v>
@@ -26679,7 +26631,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.481108805590293</v>
+        <v>1.465553488168533</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.375469704531838</v>
@@ -26768,7 +26720,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.478896134925149</v>
+        <v>1.464742400327566</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.368858599187364</v>
@@ -26857,7 +26809,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.475484904814726</v>
+        <v>1.457889734261559</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.304559213441155</v>
@@ -26946,7 +26898,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.469742881561679</v>
+        <v>1.448099299504952</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.304998806833414</v>
@@ -27035,7 +26987,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.457621040233095</v>
+        <v>1.442564375411229</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.353041673069988</v>
@@ -27124,7 +27076,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.462708103459771</v>
+        <v>1.447830162516065</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.349336236573154</v>
@@ -27213,7 +27165,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.461643917527564</v>
+        <v>1.443198604594714</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.365600102576182</v>
@@ -27302,7 +27254,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.464463706954822</v>
+        <v>1.455985912781101</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.421587925995613</v>
@@ -27391,7 +27343,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.489929276292829</v>
+        <v>1.483602834492895</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.439142036338929</v>
@@ -27480,7 +27432,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.508953740345147</v>
+        <v>1.495221978333908</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.41584780406429</v>
@@ -27569,7 +27521,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.503100099678844</v>
+        <v>1.493390542933454</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.531775279834589</v>
@@ -27658,7 +27610,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.497801859076822</v>
+        <v>1.488365155963375</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.395896985475586</v>
@@ -27747,7 +27699,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.527820265446116</v>
+        <v>1.517826830724861</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.400148528310121</v>
@@ -27836,7 +27788,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.545951421049231</v>
+        <v>1.536329148413275</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.618750865210874</v>
@@ -27925,7 +27877,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.567180513311591</v>
+        <v>1.554040518095004</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.288768169920429</v>
@@ -28014,7 +27966,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.601562831800063</v>
+        <v>1.588125966647245</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.560857561587302</v>
@@ -28103,7 +28055,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.617489083672517</v>
+        <v>1.602970671237216</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.78869470145301</v>
@@ -28192,7 +28144,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.62438321827825</v>
+        <v>1.604163554081203</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.370840616060075</v>
@@ -28281,7 +28233,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.612368142063581</v>
+        <v>1.602010970389312</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.573952952070034</v>
@@ -28370,7 +28322,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.590813511169457</v>
+        <v>1.582067413074028</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.593316500543294</v>
@@ -28459,7 +28411,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.586376352074831</v>
+        <v>1.579965169732878</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.478245091681284</v>
@@ -28548,7 +28500,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.487428301304421</v>
+        <v>1.496221447859875</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.015652591446248</v>
@@ -28637,7 +28589,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.469856735171694</v>
+        <v>1.479449514965255</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.013802653285544</v>
@@ -28923,7 +28875,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.494525591379069</v>
+        <v>1.481628717450316</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.079184307229152</v>
@@ -29012,7 +28964,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.491052373347436</v>
+        <v>1.481147484628518</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.019143807980944</v>
@@ -29101,7 +29053,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.501580685774436</v>
+        <v>1.492617742064961</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.047805731817412</v>
@@ -29190,7 +29142,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.500029673731967</v>
+        <v>1.49167339907789</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.007261999334294</v>
@@ -29279,7 +29231,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.506296226358136</v>
+        <v>1.495565640449496</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.000140644297731</v>
@@ -29368,7 +29320,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.517229104596461</v>
+        <v>1.505614959296121</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.02291362164779</v>
@@ -29457,7 +29409,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.530492413624809</v>
+        <v>1.502178277417818</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.143300715166959</v>
@@ -29546,7 +29498,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.540202015651457</v>
+        <v>1.51400085918707</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.053623514054619</v>
@@ -29635,7 +29587,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.543740382101682</v>
+        <v>1.518418611276561</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.151336266621255</v>
@@ -29724,7 +29676,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.581765676385764</v>
+        <v>1.557339587189168</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.869530719082348</v>
@@ -29813,7 +29765,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.637611360277544</v>
+        <v>1.618721562781498</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.886258969996323</v>
@@ -29902,7 +29854,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.632053454563037</v>
+        <v>1.612449546241881</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.885982501330847</v>
@@ -29991,7 +29943,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.645043786173147</v>
+        <v>1.621192402214233</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.430033332779193</v>
@@ -30080,7 +30032,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.663653573265167</v>
+        <v>1.642692277123411</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.73513078974659</v>
@@ -30169,7 +30121,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.647443666471764</v>
+        <v>1.629864892398316</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.850222234100733</v>
@@ -30258,7 +30210,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.67062821835896</v>
+        <v>1.650589993042045</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.621856825260189</v>
@@ -30347,7 +30299,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.676012658762695</v>
+        <v>1.653235604505858</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.803296024009147</v>
@@ -30436,7 +30388,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.673144500119969</v>
+        <v>1.647393869484948</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.990932492737607</v>
@@ -30525,7 +30477,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.675059500117107</v>
+        <v>1.646833797534766</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.939139506719377</v>
@@ -30614,7 +30566,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.704882196972941</v>
+        <v>1.673120641870973</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.838699424214895</v>
@@ -30703,7 +30655,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.717394325074948</v>
+        <v>1.681898413199802</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.027836669373067</v>
@@ -30792,7 +30744,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.698936725674367</v>
+        <v>1.669579960720911</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.77439693481484</v>
@@ -30881,7 +30833,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.705732843507418</v>
+        <v>1.675325951987433</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.026385030904717</v>
@@ -30970,7 +30922,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.707337445588679</v>
+        <v>1.678621670820536</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.846241401886373</v>
@@ -31059,7 +31011,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.710279087200051</v>
+        <v>1.682324700699696</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.948737885768861</v>
@@ -31148,7 +31100,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.67263423559897</v>
+        <v>1.648481566586929</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.474176918156645</v>
@@ -31237,7 +31189,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.669948355700795</v>
+        <v>1.647793707631494</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.566255531235487</v>
@@ -31326,7 +31278,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.667302358069852</v>
+        <v>1.644560663445519</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.58366256355703</v>
@@ -31415,7 +31367,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.648037039612452</v>
+        <v>1.630013780045733</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.697661279524105</v>
@@ -31504,7 +31456,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.654004622768437</v>
+        <v>1.635754473737654</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.645308465664229</v>
@@ -31593,7 +31545,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.65276464410417</v>
+        <v>1.632824088533343</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.760639006368377</v>
@@ -31682,7 +31634,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.650827229767245</v>
+        <v>1.628893464951726</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.658695212877697</v>
@@ -31771,7 +31723,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.627280563074079</v>
+        <v>1.61733944530183</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.663868019682693</v>
@@ -31860,7 +31812,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.620979431452754</v>
+        <v>1.607143536854755</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.622062758100417</v>
@@ -31949,7 +31901,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.616895357981122</v>
+        <v>1.600096910479883</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.589447267463992</v>
@@ -32038,7 +31990,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.551999579181732</v>
+        <v>1.543440302758327</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.248801393924653</v>
@@ -32127,7 +32079,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.533921916879889</v>
+        <v>1.534814726436438</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.225096327521481</v>
@@ -32216,7 +32168,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.550775775894893</v>
+        <v>1.547848777750844</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.238018450341109</v>
@@ -32305,7 +32257,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.534357714753136</v>
+        <v>1.536326594067157</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.278106072713845</v>
@@ -32394,7 +32346,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.525714574605147</v>
+        <v>1.526678210928384</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.184158837639574</v>
@@ -32483,7 +32435,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.548962698204244</v>
+        <v>1.54812347909946</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.299741603943092</v>
@@ -32572,7 +32524,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.558439613974584</v>
+        <v>1.555284209784619</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.293713265733749</v>
@@ -32661,7 +32613,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.554833988254122</v>
+        <v>1.553764808985877</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.229468419143648</v>
@@ -32750,7 +32702,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.577741063763628</v>
+        <v>1.570186267641196</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.233278243033619</v>
@@ -32839,7 +32791,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.576337385846272</v>
+        <v>1.572778465970968</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.301857732949781</v>
@@ -32928,7 +32880,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.578422572698118</v>
+        <v>1.569256579715051</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.20211252336538</v>
@@ -33017,7 +32969,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.563729157118694</v>
+        <v>1.56063188857212</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.195676699225345</v>
@@ -33106,7 +33058,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.555978581918455</v>
+        <v>1.552597889339265</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.27347544815222</v>
@@ -33195,7 +33147,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.557381630557836</v>
+        <v>1.556876831065013</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.313420587873881</v>
@@ -33284,7 +33236,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.509338780075178</v>
+        <v>1.515422622437102</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.335105637264948</v>
@@ -33373,7 +33325,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.554260639603097</v>
+        <v>1.553702331708927</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.308684819937552</v>
